--- a/biology/Médecine/Neuropathie_héréditaire_sensitive_et_autonomique_de_type_I/Neuropathie_héréditaire_sensitive_et_autonomique_de_type_I.xlsx
+++ b/biology/Médecine/Neuropathie_héréditaire_sensitive_et_autonomique_de_type_I/Neuropathie_héréditaire_sensitive_et_autonomique_de_type_I.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neuropathie_h%C3%A9r%C3%A9ditaire_sensitive_et_autonomique_de_type_I</t>
+          <t>Neuropathie_héréditaire_sensitive_et_autonomique_de_type_I</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La neuropathie héréditaire sensitive et autonomique de type I est une atteinte motrice et sensitive du nerf dont la caractéristique principale est la perte précoce de la sensibilité profonde et une apparition de paresthésie surtout sous forme d'accès douloureux brutale.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neuropathie_h%C3%A9r%C3%A9ditaire_sensitive_et_autonomique_de_type_I</t>
+          <t>Neuropathie_héréditaire_sensitive_et_autonomique_de_type_I</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Garth A Nicholson, Hereditary Sensory Neuropathy Type I In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Garth A Nicholson, Hereditary Sensory Neuropathy Type I In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
